--- a/data/trans_dic/IP19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>20,0%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 26,48</t>
+          <t>7,82; 17,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 27,59</t>
+          <t>11,06; 21,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 24,95</t>
+          <t>11,0; 21,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 18,87</t>
+          <t>13,36; 26,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,65; 30,16</t>
+          <t>8,88; 19,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 28,62</t>
+          <t>12,1; 22,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,93</t>
+          <t>13,35; 25,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,4; 18,5</t>
+          <t>14,91; 28,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,93; 26,66</t>
+          <t>9,32; 16,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,76</t>
+          <t>13,0; 20,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,16</t>
+          <t>13,54; 20,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,49</t>
+          <t>15,51; 25,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>14,74%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 17,62</t>
+          <t>17,68; 26,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 21,02</t>
+          <t>18,26; 27,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,0; 21,62</t>
+          <t>15,88; 24,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,36; 26,2</t>
+          <t>11,36; 18,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,88; 19,78</t>
+          <t>20,65; 30,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 22,64</t>
+          <t>19,23; 28,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 25,07</t>
+          <t>12,67; 20,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 28,9</t>
+          <t>11,4; 18,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 16,61</t>
+          <t>19,93; 26,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,35</t>
+          <t>20,08; 26,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,54; 20,54</t>
+          <t>15,38; 21,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,09</t>
+          <t>12,37; 17,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>22,08%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,28</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,88</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,61</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 28,97</t>
+          <t>0; 20,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 21,97</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,72</t>
+          <t>0; 30,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,57</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 43,2</t>
+          <t>13,93; 77,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 16,29</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,3</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 23,43</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,3; 30,29</t>
+          <t>6,98; 47,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>18,64%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 17,62</t>
+          <t>4,9; 15,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,06; 21,02</t>
+          <t>8,45; 20,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 21,62</t>
+          <t>8,07; 20,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 26,2</t>
+          <t>12,48; 28,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 19,78</t>
+          <t>6,87; 18,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 22,64</t>
+          <t>5,0; 15,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,35; 25,07</t>
+          <t>9,25; 24,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,91; 28,9</t>
+          <t>11,5; 27,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 16,61</t>
+          <t>7,07; 14,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,35</t>
+          <t>8,13; 16,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,54; 20,54</t>
+          <t>10,5; 19,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,51; 25,09</t>
+          <t>13,36; 24,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>17,42%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,68; 26,48</t>
+          <t>11,18; 23,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,26; 27,59</t>
+          <t>14,03; 25,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 24,95</t>
+          <t>11,64; 21,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 18,87</t>
+          <t>11,22; 22,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,65; 30,16</t>
+          <t>13,62; 26,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,23; 28,62</t>
+          <t>15,87; 27,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,93</t>
+          <t>10,52; 19,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 18,5</t>
+          <t>13,27; 26,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,93; 26,66</t>
+          <t>14,21; 23,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 26,76</t>
+          <t>16,23; 24,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,16</t>
+          <t>12,0; 19,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,49</t>
+          <t>13,76; 21,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>14,8%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,55; 20,63</t>
+          <t>17,46; 27,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 22,91</t>
+          <t>17,95; 29,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,83</t>
+          <t>17,05; 29,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 19,08</t>
+          <t>10,55; 19,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,45</t>
+          <t>20,78; 31,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 24,13</t>
+          <t>21,08; 32,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 20,23</t>
+          <t>14,8; 25,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,19</t>
+          <t>11,03; 19,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 21,81</t>
+          <t>20,9; 28,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 22,31</t>
+          <t>21,14; 29,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,38; 19,96</t>
+          <t>17,17; 25,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 18,7</t>
+          <t>11,86; 18,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 21,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 22,52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14,88; 21,5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13,38; 19,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 24,67</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 24,16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 20,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 20,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,88; 21,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 22,42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 20,17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 18,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 77,49</t>
+          <t>14,3; 74,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 47,75</t>
+          <t>6,9; 50,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 15,07</t>
+          <t>4,83; 14,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 20,99</t>
+          <t>8,49; 20,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 20,33</t>
+          <t>8,28; 21,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 28,18</t>
+          <t>12,18; 28,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 18,17</t>
+          <t>6,69; 18,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 15,45</t>
+          <t>4,91; 16,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 24,08</t>
+          <t>9,46; 23,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 27,78</t>
+          <t>11,91; 26,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 14,4</t>
+          <t>6,6; 14,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,25</t>
+          <t>8,05; 16,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 19,53</t>
+          <t>9,94; 19,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 24,31</t>
+          <t>13,65; 25,26</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 23,07</t>
+          <t>11,58; 22,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 25,44</t>
+          <t>14,14; 25,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,64; 21,23</t>
+          <t>11,58; 22,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 22,17</t>
+          <t>10,92; 22,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 26,52</t>
+          <t>13,52; 26,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 27,24</t>
+          <t>15,66; 27,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 19,93</t>
+          <t>10,78; 20,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 26,84</t>
+          <t>13,8; 27,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,04</t>
+          <t>14,18; 23,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 24,99</t>
+          <t>16,43; 24,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 19,31</t>
+          <t>12,54; 19,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,76; 21,94</t>
+          <t>13,58; 21,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 27,8</t>
+          <t>17,59; 27,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 29,46</t>
+          <t>17,7; 29,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,05; 29,83</t>
+          <t>17,43; 29,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 19,55</t>
+          <t>11,07; 19,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,78; 31,68</t>
+          <t>21,59; 33,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 32,65</t>
+          <t>20,9; 33,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 25,56</t>
+          <t>14,95; 25,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 19,35</t>
+          <t>10,25; 18,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,9; 28,48</t>
+          <t>21,02; 28,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,14; 29,26</t>
+          <t>21,22; 29,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 25,42</t>
+          <t>17,25; 25,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 18,28</t>
+          <t>11,94; 18,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 21,12</t>
+          <t>14,56; 20,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,52</t>
+          <t>16,05; 22,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,5</t>
+          <t>14,7; 21,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,38; 19,57</t>
+          <t>13,05; 19,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,91; 24,67</t>
+          <t>17,4; 24,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,25; 24,16</t>
+          <t>17,52; 24,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,44</t>
+          <t>14,12; 20,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,69; 20,45</t>
+          <t>13,87; 20,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,81</t>
+          <t>16,82; 21,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,58; 22,42</t>
+          <t>17,6; 22,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,17</t>
+          <t>15,5; 19,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,22; 18,73</t>
+          <t>14,27; 18,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C03-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -671,29 +671,29 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>41,8%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -724,54 +724,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 30,57</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 74,5</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 20,75</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 18,74</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>0; 26,42</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 30,57</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 74,9</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 18,74</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 26,42</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>0; 44,41</t>
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 50,77</t>
+          <t>6,94; 49,43</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>9,04%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>13,79%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>13,84%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,02%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,51%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,22%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,4%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 14,82</t>
+          <t>6,45; 17,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,49; 20,47</t>
+          <t>5,13; 15,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 21,59</t>
+          <t>9,31; 23,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 28,63</t>
+          <t>11,51; 26,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,37</t>
+          <t>4,81; 14,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 16,11</t>
+          <t>8,56; 21,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,46; 23,55</t>
+          <t>8,26; 20,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,91; 26,17</t>
+          <t>11,87; 27,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 14,59</t>
+          <t>7,13; 14,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 16,44</t>
+          <t>8,24; 16,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 19,23</t>
+          <t>10,31; 19,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 25,26</t>
+          <t>13,56; 24,45</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>16,7%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>19,35%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>16,33%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,1%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>19,71%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>21,1%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>15,01%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>18,46%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,58; 22,79</t>
+          <t>14,11; 27,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 25,97</t>
+          <t>15,09; 27,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,58; 22,0</t>
+          <t>10,69; 20,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 22,03</t>
+          <t>14,07; 28,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,52; 26,84</t>
+          <t>11,47; 23,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 27,83</t>
+          <t>14,2; 25,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 20,19</t>
+          <t>12,06; 21,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,8; 27,22</t>
+          <t>11,8; 23,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,14</t>
+          <t>14,28; 22,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,43; 24,49</t>
+          <t>16,27; 24,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 19,35</t>
+          <t>12,35; 19,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 21,71</t>
+          <t>14,72; 23,63</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>26,63%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>22,19%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>23,19%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>23,04%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,09%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>26,63%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>26,72%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>19,84%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>15,21%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 27,52</t>
+          <t>21,37; 32,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,7; 29,63</t>
+          <t>21,63; 33,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 29,01</t>
+          <t>14,41; 25,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 19,88</t>
+          <t>11,24; 19,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,59; 33,07</t>
+          <t>17,46; 27,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,9; 33,23</t>
+          <t>17,59; 29,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,95; 25,21</t>
+          <t>17,3; 28,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 18,49</t>
+          <t>11,07; 20,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 28,48</t>
+          <t>20,71; 28,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 29,47</t>
+          <t>21,02; 29,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 25,46</t>
+          <t>17,88; 25,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,94; 18,27</t>
+          <t>12,1; 18,65</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>17,55%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>19,4%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>18,19%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>20,74%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,64%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>17,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,56; 20,75</t>
+          <t>17,27; 24,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 22,56</t>
+          <t>17,58; 24,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,7; 21,72</t>
+          <t>13,77; 20,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,22</t>
+          <t>14,61; 21,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,16</t>
+          <t>14,55; 20,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,7</t>
+          <t>15,99; 22,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,12; 20,45</t>
+          <t>15,31; 21,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,87; 20,43</t>
+          <t>13,19; 19,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 21,61</t>
+          <t>16,81; 21,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 22,55</t>
+          <t>17,74; 22,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,5; 19,87</t>
+          <t>15,38; 19,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,27; 18,94</t>
+          <t>14,82; 19,27</t>
         </is>
       </c>
     </row>
